--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -7,11 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="会长" sheetId="1" r:id="rId1"/>
-    <sheet name="总代" sheetId="2" r:id="rId2"/>
-    <sheet name="代理" sheetId="3" r:id="rId3"/>
-    <sheet name="会员" sheetId="4" r:id="rId4"/>
-    <sheet name="子账号" sheetId="5" r:id="rId5"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -385,7 +381,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -411,59 +407,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>username</t>
+    <t>HZ_ZSHY_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
+    <t>ZD_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a123</t>
+    <t>ZD_ZSHY_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cl1</t>
+    <t>DL_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,28 +378,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -14,13 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>HZ_ZSHY_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZD_original</t>
+    <t>HZ_ZD_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -28,7 +28,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DL_original</t>
+    <t>ZD_DL_original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL_HY_original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初期额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,46 +386,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>15000</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
         <v>10000</v>
       </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>5000</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
+      <c r="F2">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -9,34 +9,41 @@
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>HZ_ZSHY_original</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>初期额度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HZ_ZD_original</t>
+    <t>HZ_ZSHY</t>
+  </si>
+  <si>
+    <t>HZ_ZD</t>
+  </si>
+  <si>
+    <t>ZD_ZSHY</t>
+  </si>
+  <si>
+    <t>ZD_DL</t>
+  </si>
+  <si>
+    <t>DL_HY</t>
+  </si>
+  <si>
+    <t>发放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZD_ZSHY_original</t>
+    <t>回收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZD_DL_original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL_HY_original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初期额度</t>
+    <t>余额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,41 +393,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -436,6 +442,71 @@
       </c>
       <c r="F2">
         <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-10</v>
+      </c>
+      <c r="C4">
+        <v>-100</v>
+      </c>
+      <c r="D4">
+        <v>-20</v>
+      </c>
+      <c r="E4">
+        <v>-200</v>
+      </c>
+      <c r="F4">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>1030</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:F5" si="0">SUM(C2:C4)</f>
+        <v>15100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,18 +396,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -464,7 +464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -484,7 +484,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -512,6 +512,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>